--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H2">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I2">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J2">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N2">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q2">
-        <v>1004.815685781537</v>
+        <v>1071.143962985973</v>
       </c>
       <c r="R2">
-        <v>1004.815685781537</v>
+        <v>9640.295666873759</v>
       </c>
       <c r="S2">
-        <v>0.4187164024591082</v>
+        <v>0.411460179631852</v>
       </c>
       <c r="T2">
-        <v>0.4187164024591082</v>
+        <v>0.411460179631852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H3">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I3">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J3">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N3">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q3">
-        <v>183.2434404667287</v>
+        <v>196.8000618013866</v>
       </c>
       <c r="R3">
-        <v>183.2434404667287</v>
+        <v>1771.20055621248</v>
       </c>
       <c r="S3">
-        <v>0.07635931171474578</v>
+        <v>0.07559711073255473</v>
       </c>
       <c r="T3">
-        <v>0.07635931171474578</v>
+        <v>0.07559711073255473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H4">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I4">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J4">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N4">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q4">
-        <v>203.0859198993104</v>
+        <v>218.2566802594667</v>
       </c>
       <c r="R4">
-        <v>203.0859198993104</v>
+        <v>1964.3101223352</v>
       </c>
       <c r="S4">
-        <v>0.08462786456622447</v>
+        <v>0.08383927461540278</v>
       </c>
       <c r="T4">
-        <v>0.08462786456622447</v>
+        <v>0.08383927461540278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H5">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I5">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J5">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N5">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q5">
-        <v>218.1775919886369</v>
+        <v>233.67576889416</v>
       </c>
       <c r="R5">
-        <v>218.1775919886369</v>
+        <v>2103.08192004744</v>
       </c>
       <c r="S5">
-        <v>0.09091671010650916</v>
+        <v>0.08976223287183038</v>
       </c>
       <c r="T5">
-        <v>0.09091671010650916</v>
+        <v>0.08976223287183038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H6">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I6">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J6">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N6">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q6">
-        <v>237.0818072105401</v>
+        <v>273.52688877976</v>
       </c>
       <c r="R6">
-        <v>237.0818072105401</v>
+        <v>2461.74199901784</v>
       </c>
       <c r="S6">
-        <v>0.09879427919806989</v>
+        <v>0.1050703049081512</v>
       </c>
       <c r="T6">
-        <v>0.09879427919806989</v>
+        <v>0.1050703049081512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H7">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I7">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J7">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N7">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q7">
-        <v>40.79974017534763</v>
+        <v>44.49054361921244</v>
       </c>
       <c r="R7">
-        <v>40.79974017534763</v>
+        <v>400.4148925729119</v>
       </c>
       <c r="S7">
-        <v>0.01700164584333742</v>
+        <v>0.01709022101795631</v>
       </c>
       <c r="T7">
-        <v>0.01700164584333742</v>
+        <v>0.01709022101795631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H8">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I8">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J8">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N8">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q8">
-        <v>7.440453871959936</v>
+        <v>8.174196967352888</v>
       </c>
       <c r="R8">
-        <v>7.440453871959936</v>
+        <v>73.56777270617599</v>
       </c>
       <c r="S8">
-        <v>0.003100509000819234</v>
+        <v>0.003139966866038531</v>
       </c>
       <c r="T8">
-        <v>0.003100509000819234</v>
+        <v>0.003139966866038531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H9">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I9">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J9">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N9">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q9">
-        <v>8.246141936686291</v>
+        <v>9.065409215582221</v>
       </c>
       <c r="R9">
-        <v>8.246141936686291</v>
+        <v>81.58868294023999</v>
       </c>
       <c r="S9">
-        <v>0.00343624700007635</v>
+        <v>0.003482309599058584</v>
       </c>
       <c r="T9">
-        <v>0.00343624700007635</v>
+        <v>0.003482309599058583</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H10">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I10">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J10">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N10">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q10">
-        <v>8.858927255196871</v>
+        <v>9.705849398391999</v>
       </c>
       <c r="R10">
-        <v>8.858927255196871</v>
+        <v>87.352644585528</v>
       </c>
       <c r="S10">
-        <v>0.00369160056160733</v>
+        <v>0.003728322872501099</v>
       </c>
       <c r="T10">
-        <v>0.00369160056160733</v>
+        <v>0.003728322872501098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H11">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I11">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J11">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N11">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q11">
-        <v>9.626517849359027</v>
+        <v>11.36108720844533</v>
       </c>
       <c r="R11">
-        <v>9.626517849359027</v>
+        <v>102.249784876008</v>
       </c>
       <c r="S11">
-        <v>0.004011462976871123</v>
+        <v>0.00436415192087608</v>
       </c>
       <c r="T11">
-        <v>0.004011462976871123</v>
+        <v>0.00436415192087608</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H12">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I12">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J12">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N12">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q12">
-        <v>59.77718941945239</v>
+        <v>62.0854892431791</v>
       </c>
       <c r="R12">
-        <v>59.77718941945239</v>
+        <v>558.7694031886119</v>
       </c>
       <c r="S12">
-        <v>0.02490973225936645</v>
+        <v>0.02384899456961642</v>
       </c>
       <c r="T12">
-        <v>0.02490973225936645</v>
+        <v>0.02384899456961642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H13">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I13">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J13">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N13">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q13">
-        <v>10.90128070814504</v>
+        <v>11.40689631108622</v>
       </c>
       <c r="R13">
-        <v>10.90128070814504</v>
+        <v>102.662066799776</v>
       </c>
       <c r="S13">
-        <v>0.004542668973923416</v>
+        <v>0.004381748642001083</v>
       </c>
       <c r="T13">
-        <v>0.004542668973923416</v>
+        <v>0.004381748642001083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H14">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I14">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J14">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N14">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q14">
-        <v>12.0817237171238</v>
+        <v>12.65056168241555</v>
       </c>
       <c r="R14">
-        <v>12.0817237171238</v>
+        <v>113.85505514174</v>
       </c>
       <c r="S14">
-        <v>0.005034570978461846</v>
+        <v>0.004859479735833316</v>
       </c>
       <c r="T14">
-        <v>0.005034570978461846</v>
+        <v>0.004859479735833315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H15">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I15">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J15">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N15">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q15">
-        <v>12.97953786742567</v>
+        <v>13.544280635842</v>
       </c>
       <c r="R15">
-        <v>12.97953786742567</v>
+        <v>121.898525722578</v>
       </c>
       <c r="S15">
-        <v>0.005408698807486412</v>
+        <v>0.005202785373380051</v>
       </c>
       <c r="T15">
-        <v>0.005408698807486412</v>
+        <v>0.00520278537338005</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H16">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I16">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J16">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N16">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O16">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P16">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q16">
-        <v>14.1041628808846</v>
+        <v>15.85412540039533</v>
       </c>
       <c r="R16">
-        <v>14.1041628808846</v>
+        <v>142.687128603558</v>
       </c>
       <c r="S16">
-        <v>0.005877340914107974</v>
+        <v>0.006090069599018031</v>
       </c>
       <c r="T16">
-        <v>0.005877340914107974</v>
+        <v>0.00609006959901803</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H17">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I17">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J17">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N17">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O17">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P17">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q17">
-        <v>120.1800806737989</v>
+        <v>130.175292523136</v>
       </c>
       <c r="R17">
-        <v>120.1800806737989</v>
+        <v>1171.577632708224</v>
       </c>
       <c r="S17">
-        <v>0.05008020051741027</v>
+        <v>0.05000443553440427</v>
       </c>
       <c r="T17">
-        <v>0.05008020051741027</v>
+        <v>0.05000443553440427</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H18">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I18">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J18">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N18">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P18">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q18">
-        <v>21.91666767334274</v>
+        <v>23.916958409728</v>
       </c>
       <c r="R18">
-        <v>21.91666767334274</v>
+        <v>215.252625687552</v>
       </c>
       <c r="S18">
-        <v>0.009132887127390152</v>
+        <v>0.009187258056406637</v>
       </c>
       <c r="T18">
-        <v>0.009132887127390152</v>
+        <v>0.009187258056406637</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H19">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I19">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J19">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N19">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O19">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P19">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q19">
-        <v>24.28990966460513</v>
+        <v>26.52456455872</v>
       </c>
       <c r="R19">
-        <v>24.28990966460513</v>
+        <v>238.72108102848</v>
       </c>
       <c r="S19">
-        <v>0.01012183998989784</v>
+        <v>0.01018892182108158</v>
       </c>
       <c r="T19">
-        <v>0.01012183998989784</v>
+        <v>0.01018892182108158</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H20">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I20">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J20">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N20">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O20">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P20">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q20">
-        <v>26.09493559608936</v>
+        <v>28.39843440518399</v>
       </c>
       <c r="R20">
-        <v>26.09493559608936</v>
+        <v>255.585909646656</v>
       </c>
       <c r="S20">
-        <v>0.01087401173151295</v>
+        <v>0.01090873433020822</v>
       </c>
       <c r="T20">
-        <v>0.01087401173151295</v>
+        <v>0.01090873433020822</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H21">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I21">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J21">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N21">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O21">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P21">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q21">
-        <v>28.35595733628653</v>
+        <v>33.241510002624</v>
       </c>
       <c r="R21">
-        <v>28.35595733628653</v>
+        <v>299.173590023616</v>
       </c>
       <c r="S21">
-        <v>0.0118162013313905</v>
+        <v>0.01276911241583759</v>
       </c>
       <c r="T21">
-        <v>0.0118162013313905</v>
+        <v>0.01276911241583759</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.34967468925711</v>
+        <v>1.512380666666667</v>
       </c>
       <c r="H22">
-        <v>1.34967468925711</v>
+        <v>4.537142</v>
       </c>
       <c r="I22">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="J22">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N22">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O22">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P22">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q22">
-        <v>80.37565418075862</v>
+        <v>90.9596841317329</v>
       </c>
       <c r="R22">
-        <v>80.37565418075862</v>
+        <v>818.637157185596</v>
       </c>
       <c r="S22">
-        <v>0.03349331149989798</v>
+        <v>0.03494048350678091</v>
       </c>
       <c r="T22">
-        <v>0.03349331149989798</v>
+        <v>0.0349404835067809</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.34967468925711</v>
+        <v>1.512380666666667</v>
       </c>
       <c r="H23">
-        <v>1.34967468925711</v>
+        <v>4.537142</v>
       </c>
       <c r="I23">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="J23">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N23">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O23">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P23">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q23">
-        <v>14.65772440683056</v>
+        <v>16.71191929108978</v>
       </c>
       <c r="R23">
-        <v>14.65772440683056</v>
+        <v>150.407273619808</v>
       </c>
       <c r="S23">
-        <v>0.00610801534919463</v>
+        <v>0.006419575286907405</v>
       </c>
       <c r="T23">
-        <v>0.00610801534919463</v>
+        <v>0.006419575286907404</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.34967468925711</v>
+        <v>1.512380666666667</v>
       </c>
       <c r="H24">
-        <v>1.34967468925711</v>
+        <v>4.537142</v>
       </c>
       <c r="I24">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="J24">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N24">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O24">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P24">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q24">
-        <v>16.24493317310448</v>
+        <v>18.53397804782445</v>
       </c>
       <c r="R24">
-        <v>16.24493317310448</v>
+        <v>166.80580243042</v>
       </c>
       <c r="S24">
-        <v>0.006769420574023365</v>
+        <v>0.007119485522368119</v>
       </c>
       <c r="T24">
-        <v>0.006769420574023365</v>
+        <v>0.007119485522368118</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.34967468925711</v>
+        <v>1.512380666666667</v>
       </c>
       <c r="H25">
-        <v>1.34967468925711</v>
+        <v>4.537142</v>
       </c>
       <c r="I25">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="J25">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N25">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O25">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P25">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q25">
-        <v>17.45212274431191</v>
+        <v>19.843340262686</v>
       </c>
       <c r="R25">
-        <v>17.45212274431191</v>
+        <v>178.590062364174</v>
       </c>
       <c r="S25">
-        <v>0.007272468129405603</v>
+        <v>0.007622452845853048</v>
       </c>
       <c r="T25">
-        <v>0.007272468129405603</v>
+        <v>0.007622452845853047</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.34967468925711</v>
+        <v>1.512380666666667</v>
       </c>
       <c r="H26">
-        <v>1.34967468925711</v>
+        <v>4.537142</v>
       </c>
       <c r="I26">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="J26">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N26">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O26">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P26">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q26">
-        <v>18.96427933853598</v>
+        <v>23.22742811861267</v>
       </c>
       <c r="R26">
-        <v>18.96427933853598</v>
+        <v>209.046853067514</v>
       </c>
       <c r="S26">
-        <v>0.007902598389161498</v>
+        <v>0.008922387724081727</v>
       </c>
       <c r="T26">
-        <v>0.007902598389161498</v>
+        <v>0.008922387724081726</v>
       </c>
     </row>
   </sheetData>
